--- a/NFL Football/NFL_Week11_Tuesday_Export.xlsx
+++ b/NFL Football/NFL_Week11_Tuesday_Export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Home_Team</t>
   </si>
@@ -31,88 +31,100 @@
     <t>id</t>
   </si>
   <si>
+    <t>Atlanta Falcons</t>
+  </si>
+  <si>
+    <t>Baltimore Ravens</t>
+  </si>
+  <si>
+    <t>Chicago Bears</t>
+  </si>
+  <si>
+    <t>Cleveland Browns</t>
+  </si>
+  <si>
+    <t>Detroit Lions</t>
+  </si>
+  <si>
+    <t>Minnesota Vikings</t>
+  </si>
+  <si>
+    <t>New York Giants</t>
+  </si>
+  <si>
+    <t>Philadelphia Eagles</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams</t>
+  </si>
+  <si>
+    <t>Miami Dolphins</t>
+  </si>
+  <si>
+    <t>Cincinnati Bengals</t>
+  </si>
+  <si>
+    <t>Las Vegas Raiders</t>
+  </si>
+  <si>
+    <t>Dallas Cowboys</t>
+  </si>
+  <si>
+    <t>New Orleans Saints</t>
+  </si>
+  <si>
+    <t>Buffalo Bills</t>
+  </si>
+  <si>
+    <t>Jacksonville Jaguars</t>
+  </si>
+  <si>
+    <t>Denver Broncos</t>
+  </si>
+  <si>
+    <t>Carolina Panthers</t>
+  </si>
+  <si>
+    <t>San Francisco 49ers</t>
+  </si>
+  <si>
+    <t>Los Angeles Chargers</t>
+  </si>
+  <si>
+    <t>Arizona Cardinals</t>
+  </si>
+  <si>
+    <t>Pittsburgh Steelers</t>
+  </si>
+  <si>
     <t>Green Bay Packers</t>
   </si>
   <si>
-    <t>Atlanta Falcons</t>
-  </si>
-  <si>
-    <t>Baltimore Ravens</t>
-  </si>
-  <si>
-    <t>Buffalo Bills</t>
-  </si>
-  <si>
-    <t>New York Giants</t>
-  </si>
-  <si>
     <t>Houston Texans</t>
   </si>
   <si>
+    <t>New York Jets</t>
+  </si>
+  <si>
+    <t>Washington Commanders</t>
+  </si>
+  <si>
+    <t>Tennessee Titans</t>
+  </si>
+  <si>
+    <t>Seattle Seahawks</t>
+  </si>
+  <si>
+    <t>Kansas City Chiefs</t>
+  </si>
+  <si>
     <t>Indianapolis Colts</t>
   </si>
   <si>
-    <t>New Orleans Saints</t>
+    <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
     <t>New England Patriots</t>
-  </si>
-  <si>
-    <t>Denver Broncos</t>
-  </si>
-  <si>
-    <t>Pittsburgh Steelers</t>
-  </si>
-  <si>
-    <t>Minnesota Vikings</t>
-  </si>
-  <si>
-    <t>Los Angeles Chargers</t>
-  </si>
-  <si>
-    <t>Arizona Cardinals</t>
-  </si>
-  <si>
-    <t>Tennessee Titans</t>
-  </si>
-  <si>
-    <t>Chicago Bears</t>
-  </si>
-  <si>
-    <t>Carolina Panthers</t>
-  </si>
-  <si>
-    <t>Cleveland Browns</t>
-  </si>
-  <si>
-    <t>Detroit Lions</t>
-  </si>
-  <si>
-    <t>Washington Commanders</t>
-  </si>
-  <si>
-    <t>Philadelphia Eagles</t>
-  </si>
-  <si>
-    <t>Los Angeles Rams</t>
-  </si>
-  <si>
-    <t>New York Jets</t>
-  </si>
-  <si>
-    <t>Las Vegas Raiders</t>
-  </si>
-  <si>
-    <t>Cincinnati Bengals</t>
-  </si>
-  <si>
-    <t>Dallas Cowboys</t>
-  </si>
-  <si>
-    <t>Kansas City Chiefs</t>
-  </si>
-  <si>
-    <t>San Francisco 49ers</t>
   </si>
 </sst>
 </file>
@@ -470,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,13 +513,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -518,13 +530,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>-3</v>
+        <v>-9.5</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -535,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-12</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -552,13 +564,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-8.5</v>
+        <v>-8</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -569,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -586,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>-3</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>-3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -603,13 +615,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>-6.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -620,13 +632,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>-4.5</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>-4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -637,13 +649,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -654,13 +666,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>-2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -671,13 +683,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -688,13 +700,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -705,13 +717,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>-6.5</v>
+        <v>-10.5</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -722,13 +734,234 @@
         <v>18</v>
       </c>
       <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>-5.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>-4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>-9.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>-3.5</v>
+      </c>
+      <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>-14.5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>2.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>3.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>7.5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="E15">
-        <v>-8</v>
+      <c r="E25">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>-6.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>1.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>1.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>-1.5</v>
       </c>
     </row>
   </sheetData>
